--- a/AAII_Financials/Quarterly/ROLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROLL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>ROLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
         <v>43827</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>185800</v>
+      </c>
+      <c r="E8" s="3">
         <v>177000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>181900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>182700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>182200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>171500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>172900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>176000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>179900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>166900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>164300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>163900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>160200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>146700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>153900</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E9" s="3">
         <v>106300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>110800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>112000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>109200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>103300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>105100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>108200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>110200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>102100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>102400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>101900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>97000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>94300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>97200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E10" s="3">
         <v>70700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>71100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>70700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>73000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>68200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>67800</v>
       </c>
       <c r="J10" s="3">
         <v>67800</v>
       </c>
       <c r="K10" s="3">
+        <v>67800</v>
+      </c>
+      <c r="L10" s="3">
         <v>69700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>64800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>61900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>62000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>63200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>52400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,19 +1005,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>900</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>900</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1014,17 +1034,17 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1044,31 +1067,31 @@
         <v>2500</v>
       </c>
       <c r="E15" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="F15" s="3">
         <v>2300</v>
       </c>
       <c r="G15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H15" s="3">
         <v>2400</v>
       </c>
       <c r="I15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J15" s="3">
         <v>2600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2400</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2300</v>
       </c>
       <c r="L15" s="3">
         <v>2300</v>
       </c>
       <c r="M15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="N15" s="3">
         <v>2400</v>
@@ -1077,13 +1100,16 @@
         <v>2400</v>
       </c>
       <c r="P15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q15" s="3">
         <v>2300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>142300</v>
+      </c>
+      <c r="E17" s="3">
         <v>139600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>144600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>144200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>141800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>151600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>137000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>140000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>141900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>133600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>138900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>131900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>125800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>126100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E18" s="3">
         <v>37400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>37300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>38500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>40400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>19900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>35900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>36000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>33300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>25400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>32000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>34400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,13 +1244,14 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="E20" s="3">
         <v>-700</v>
@@ -1226,87 +1260,93 @@
         <v>-700</v>
       </c>
       <c r="G20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E21" s="3">
         <v>44700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>44400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>45300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>47100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>26300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>41700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>40600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>43000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>38300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>30400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>36500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>39200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>25400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E23" s="3">
         <v>36800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>36600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>37800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>39700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>34100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>33300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>35800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>31300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>23300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>29400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>32300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>18600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E24" s="3">
         <v>6300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E26" s="3">
         <v>30500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>31300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>30500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>31400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>30100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>27500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>21800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>21600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E27" s="3">
         <v>30500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>31300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>31400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>30100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>27500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>25700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>14800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>21800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>21600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,13 +1692,16 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>-100</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1660,14 +1721,14 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>1000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-800</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,13 +1842,16 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E32" s="3">
         <v>700</v>
@@ -1790,87 +1860,93 @@
         <v>700</v>
       </c>
       <c r="G32" s="3">
+        <v>700</v>
+      </c>
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E33" s="3">
         <v>30500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>31300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>30500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>31400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>30100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>27500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>14800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>21800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>21600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E35" s="3">
         <v>30500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>31300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>30500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>31400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>30100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>27500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>14800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>21800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>21600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
         <v>43827</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>103300</v>
+      </c>
+      <c r="E41" s="3">
         <v>60300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>32700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>81700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>60400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>55700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>43800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>42900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>45500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>38900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>39500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,196 +2237,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E43" s="3">
         <v>121800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>129600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>130100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>130700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>116700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>119500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>116200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>116900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>109900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>109700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>112600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>109700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>98300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>367500</v>
+      </c>
+      <c r="E44" s="3">
         <v>362100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>354000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>342900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>335000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>329500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>324200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>311300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>306100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>303000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>297300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>292400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>289600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>287400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>287200</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E45" s="3">
         <v>10400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>612000</v>
+      </c>
+      <c r="E46" s="3">
         <v>554700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>534000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>514400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>503300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>538300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>517100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>490800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>483700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>470100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>457900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>459100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>448000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>437200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>437400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>248800</v>
+      </c>
+      <c r="E48" s="3">
         <v>252200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>248500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>241600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>207900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>202100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>197400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>191600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>192500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>190300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>186700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>185900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>183600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>181100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>184800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>440500</v>
+      </c>
+      <c r="E49" s="3">
         <v>441200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>442500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>415500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>417100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>419100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>448200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>450000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>451900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>454000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>456100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>463100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>464800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>467100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>469600</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E52" s="3">
         <v>24300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>14700</v>
       </c>
       <c r="L52" s="3">
         <v>14700</v>
       </c>
       <c r="M52" s="3">
+        <v>14700</v>
+      </c>
+      <c r="N52" s="3">
         <v>14000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1321900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1272500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1246600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1191900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1147400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1174900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1179300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1148000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1142800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1129200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1114600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1120600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1108800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1097700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1103500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,69 +2879,73 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E57" s="3">
         <v>50200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>50800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>51600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>49600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>43400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>48200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>44100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>43600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>37500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>34400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>37200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E58" s="3">
         <v>6600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12800</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G58" s="3">
-        <v>500</v>
       </c>
       <c r="H58" s="3">
         <v>500</v>
@@ -2823,216 +2957,231 @@
         <v>500</v>
       </c>
       <c r="K58" s="3">
+        <v>500</v>
+      </c>
+      <c r="L58" s="3">
         <v>19200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>18000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>16700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>14200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>13000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E59" s="3">
         <v>42100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>40300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>48200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>40100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>39700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>41800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>40300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>40800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>39500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>42600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>48600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>44500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>41000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>103800</v>
+      </c>
+      <c r="E60" s="3">
         <v>99000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>103900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>99900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>90100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>83600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>90500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>84800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>105200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>101100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>97900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>101600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>93100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>91200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>83100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E61" s="3">
         <v>16200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>25000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>26300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>43200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>114100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>124000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>143800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>154100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>180000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>203500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>222400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>255600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>282000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>318300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>83600</v>
+      </c>
+      <c r="E62" s="3">
         <v>78100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>75800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>68500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>45500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>45600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>52500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>52800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>48900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>49500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>43900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>44900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>43100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>39000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>203900</v>
+      </c>
+      <c r="E66" s="3">
         <v>193300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>204700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>194600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>178800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>243300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>267000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>281400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>308200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>330600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>345300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>368900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>391800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>412200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>437400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>769200</v>
+      </c>
+      <c r="E72" s="3">
         <v>735500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>705000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>673700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>641900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>610500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>594300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>564200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>537000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>510300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>486500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>471600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>448700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>427100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>414300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1118000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1079200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1041800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>997300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>968600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>931700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>912300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>866600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>834600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>798500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>769300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>751700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>717000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>685500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
         <v>43827</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E81" s="3">
         <v>30500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>31300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>30500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>31400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>30100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>27500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>14800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>21800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>21600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E83" s="3">
         <v>8000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>7100</v>
       </c>
       <c r="N83" s="3">
         <v>7100</v>
       </c>
       <c r="O83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="P83" s="3">
         <v>6900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E89" s="3">
         <v>46600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>40100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>29500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>24000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>33800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>37800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>28500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>24200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>39800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>36100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-41700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>10900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>21300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-26400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-68900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-25200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-21400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-21200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-18600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-28800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-21100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E102" s="3">
         <v>23900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-51800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>21300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ROLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>ROLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>156500</v>
+      </c>
+      <c r="E8" s="3">
         <v>185800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>177000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>181900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>182700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>182200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>171500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>172900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>176000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>179900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>166900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>164300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>163900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>160200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>146700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>153900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E9" s="3">
         <v>109300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>106300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>110800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>112000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>109200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>103300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>105100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>108200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>110200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>102100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>102400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>101900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>97000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>94300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>97200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E10" s="3">
         <v>76500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>70700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>71100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>70700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>73000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>68200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>67800</v>
       </c>
       <c r="K10" s="3">
         <v>67800</v>
       </c>
       <c r="L10" s="3">
+        <v>67800</v>
+      </c>
+      <c r="M10" s="3">
         <v>69700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>64800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>61900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>62000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>63200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>52400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,22 +1025,25 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1037,17 +1057,17 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1070,31 +1093,31 @@
         <v>2500</v>
       </c>
       <c r="F15" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="G15" s="3">
         <v>2300</v>
       </c>
       <c r="H15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I15" s="3">
         <v>2400</v>
       </c>
       <c r="J15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K15" s="3">
         <v>2600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2300</v>
       </c>
       <c r="M15" s="3">
         <v>2300</v>
       </c>
       <c r="N15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="O15" s="3">
         <v>2400</v>
@@ -1103,13 +1126,16 @@
         <v>2400</v>
       </c>
       <c r="Q15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R15" s="3">
         <v>2300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>127700</v>
+      </c>
+      <c r="E17" s="3">
         <v>142300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>139600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>144600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>144200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>141800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>151600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>137000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>140000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>141900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>133600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>138900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>131900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>125800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>126100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E18" s="3">
         <v>43500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>37400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>37300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>38500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>40400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>35900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>36000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>38000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>33300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>25400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>32000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>34400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>20600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,7 +1288,7 @@
         <v>-500</v>
       </c>
       <c r="E20" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="F20" s="3">
         <v>-700</v>
@@ -1263,90 +1297,96 @@
         <v>-700</v>
       </c>
       <c r="H20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E21" s="3">
         <v>51100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>44700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>44400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>45300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>47100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>26300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>41700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>40600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>43000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>38300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>30400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>36500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>39200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>25400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E23" s="3">
         <v>42900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>36800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>36600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>37800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>39700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>19000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>34100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>33300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>35800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>31300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>23300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>29400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>32300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>18600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E24" s="3">
         <v>9100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E26" s="3">
         <v>33900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>30500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>31300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>30500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>31400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>30100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>27500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>25700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>24600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>21800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>21600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E27" s="3">
         <v>33900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>30500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>31300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>31400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>30100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>27500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>25700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>14800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>21800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>21600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,16 +1753,19 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
         <v>-100</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1724,14 +1785,14 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>1000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-800</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,7 +1924,7 @@
         <v>500</v>
       </c>
       <c r="E32" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F32" s="3">
         <v>700</v>
@@ -1863,90 +1933,96 @@
         <v>700</v>
       </c>
       <c r="H32" s="3">
+        <v>700</v>
+      </c>
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E33" s="3">
         <v>33800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>30500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>31300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>30500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>31400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>30100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>27500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>26700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>14800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>21800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>21600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E35" s="3">
         <v>33800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>30500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>31300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>31400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>30100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>27500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>26700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>14800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>21800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>21600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>143600</v>
+      </c>
+      <c r="E41" s="3">
         <v>103300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>60300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>32700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>81700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>60400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>55700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>54200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>42900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>45500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>38900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>39500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E43" s="3">
         <v>129000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>121800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>129600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>130100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>130700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>116700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>119500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>116200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>116900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>109900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>109700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>112600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>109700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>98300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>371000</v>
+      </c>
+      <c r="E44" s="3">
         <v>367500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>362100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>354000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>342900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>335000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>329500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>324200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>311300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>306100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>303000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>297300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>292400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>289600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>287400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>287200</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E45" s="3">
         <v>12300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>638800</v>
+      </c>
+      <c r="E46" s="3">
         <v>612000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>554700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>534000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>514400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>503300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>538300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>517100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>490800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>483700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>470100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>457900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>459100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>448000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>437200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>437400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>248700</v>
+      </c>
+      <c r="E48" s="3">
         <v>248800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>252200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>248500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>241600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>207900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>202100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>197400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>191600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>192500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>190300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>186700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>185900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>183600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>181100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>184800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>438500</v>
+      </c>
+      <c r="E49" s="3">
         <v>440500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>441200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>442500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>415500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>417100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>419100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>448200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>450000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>451900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>454000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>456100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>463100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>464800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>467100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>469600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E52" s="3">
         <v>20600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>24300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>14700</v>
       </c>
       <c r="M52" s="3">
         <v>14700</v>
       </c>
       <c r="N52" s="3">
+        <v>14700</v>
+      </c>
+      <c r="O52" s="3">
         <v>14000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1349200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1321900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1272500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1246600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1191900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1147400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1174900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1179300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1148000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1142800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1129200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1114600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1120600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1108800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1097700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1103500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,75 +3010,79 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E57" s="3">
         <v>51000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>50200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>50800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>51600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>49600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>43400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>48200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>44100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>43600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>38500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>37500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>34400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>37200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E58" s="3">
         <v>6400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12800</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="H58" s="3">
-        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>500</v>
@@ -2960,128 +3094,137 @@
         <v>500</v>
       </c>
       <c r="L58" s="3">
+        <v>500</v>
+      </c>
+      <c r="M58" s="3">
         <v>19200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>18000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>16700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>14200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>13000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E59" s="3">
         <v>46300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>42100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>40300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>48200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>40100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>39700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>41800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>40300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>39500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>42600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>48600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>44500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>41000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E60" s="3">
         <v>103800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>99000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>103900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>99900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>90100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>83600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>90500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>84800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>105200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>101100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>97900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>101600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>93100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>91200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>83100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3089,99 +3232,105 @@
         <v>16600</v>
       </c>
       <c r="E61" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F61" s="3">
         <v>16200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>25000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>26300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>43200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>114100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>124000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>143800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>154100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>180000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>203500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>222400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>255600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>282000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>318300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>89600</v>
+      </c>
+      <c r="E62" s="3">
         <v>83600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>78100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>75800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>68500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>45500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>45600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>52500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>52800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>48900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>49500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>43900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>44900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>43100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>39000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>206600</v>
+      </c>
+      <c r="E66" s="3">
         <v>203900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>193300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>204700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>194600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>178800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>243300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>267000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>281400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>308200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>330600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>345300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>368900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>391800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>412200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>437400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>791900</v>
+      </c>
+      <c r="E72" s="3">
         <v>769200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>735500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>705000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>673700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>641900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>610500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>594300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>564200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>537000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>510300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>486500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>471600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>448700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>427100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>414300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1142600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1118000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1079200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1041800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>997300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>968600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>931700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>912300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>866600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>834600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>798500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>769300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>751700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>717000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>685500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E81" s="3">
         <v>33800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>30500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>31300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>30500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>31400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>30100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>27500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>26700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>14800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>21800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>21600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E83" s="3">
         <v>8100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>7100</v>
       </c>
       <c r="O83" s="3">
         <v>7100</v>
       </c>
       <c r="P83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>6900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E89" s="3">
         <v>44400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>46600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>24500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>40100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>29500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>24000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>33800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>37800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>28500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>24200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>39800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>26700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>36100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-41700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>10900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>21300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-26400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-68900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-10000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-25200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-21400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-21200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-18600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-28800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-27700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4874,95 +5123,101 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E102" s="3">
         <v>42900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>23900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-51800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>21300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ROLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>ROLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>146300</v>
+      </c>
+      <c r="E8" s="3">
         <v>156500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>185800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>177000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>181900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>182700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>182200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>171500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>172900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>176000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>179900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>166900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>164300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>163900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>160200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>146700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>153900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E9" s="3">
         <v>97000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>109300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>106300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>110800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>112000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>109200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>103300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>105100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>108200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>110200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>102100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>102400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>101900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>97000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>94300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>97200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E10" s="3">
         <v>59500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>76500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>70700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>71100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>70700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>73000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>68200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>67800</v>
       </c>
       <c r="L10" s="3">
         <v>67800</v>
       </c>
       <c r="M10" s="3">
+        <v>67800</v>
+      </c>
+      <c r="N10" s="3">
         <v>69700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>64800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>61900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>62000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>63200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>52400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,25 +1045,28 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1060,17 +1080,17 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1081,13 +1101,16 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E15" s="3">
         <v>2500</v>
@@ -1096,31 +1119,31 @@
         <v>2500</v>
       </c>
       <c r="G15" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="H15" s="3">
         <v>2300</v>
       </c>
       <c r="I15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J15" s="3">
         <v>2400</v>
       </c>
       <c r="K15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L15" s="3">
         <v>2600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2400</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2300</v>
       </c>
       <c r="N15" s="3">
         <v>2300</v>
       </c>
       <c r="O15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="P15" s="3">
         <v>2400</v>
@@ -1129,13 +1152,16 @@
         <v>2400</v>
       </c>
       <c r="R15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S15" s="3">
         <v>2300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E17" s="3">
         <v>127700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>142300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>139600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>144600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>144200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>141800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>151600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>137000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>140000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>141900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>133600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>138900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>131900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>125800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>126100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E18" s="3">
         <v>28800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>43500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>37400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>37300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>38500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>40400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>35900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>36000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>38000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>33300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>25400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>32000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>34400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,7 +1325,7 @@
         <v>-500</v>
       </c>
       <c r="F20" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="G20" s="3">
         <v>-700</v>
@@ -1300,93 +1334,99 @@
         <v>-700</v>
       </c>
       <c r="I20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E21" s="3">
         <v>36700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>51100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>44700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>44400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>45300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>47100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>41700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>40600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>43000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>38300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>30400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>36500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>39200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>25400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E23" s="3">
         <v>28300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>42900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>36800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>36600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>37800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>39700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>34100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>33300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>35800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>31300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>29400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>32300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>18600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E24" s="3">
         <v>5700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E26" s="3">
         <v>22700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>33900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>30500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>31300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>30500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>31400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>30100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>24600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>21800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>21600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E27" s="3">
         <v>22700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>33900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>31300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>30500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>31400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>27500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>25700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>24600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>14800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>21800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>21600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,19 +1814,22 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>-100</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1788,14 +1849,14 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>1000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-800</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,7 +1997,7 @@
         <v>500</v>
       </c>
       <c r="F32" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G32" s="3">
         <v>700</v>
@@ -1936,93 +2006,99 @@
         <v>700</v>
       </c>
       <c r="I32" s="3">
+        <v>700</v>
+      </c>
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E33" s="3">
         <v>22700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>33800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>30500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>31300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>30500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>31400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>30100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>27500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>26700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>14800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>21800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>21600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E35" s="3">
         <v>22700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>33800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>30500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>31300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>30500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>31400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>30100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>27500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>26700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>14800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>21800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>21600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>166400</v>
+      </c>
+      <c r="E41" s="3">
         <v>143600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>103300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>60300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>36400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>32700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>29900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>81700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>60400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>55700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>54200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>42900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>45500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>38900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>39500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2423,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>112700</v>
+      </c>
+      <c r="E43" s="3">
         <v>115000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>129000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>121800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>129600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>130100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>130700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>116700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>119500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>116200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>116900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>109900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>109700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>112600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>109700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>98300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>371500</v>
+      </c>
+      <c r="E44" s="3">
         <v>371000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>367500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>362100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>354000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>342900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>335000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>329500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>324200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>311300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>306100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>303000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>297300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>292400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>289600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>287400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>287200</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E45" s="3">
         <v>9200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>661000</v>
+      </c>
+      <c r="E46" s="3">
         <v>638800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>612000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>554700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>534000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>514400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>503300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>538300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>517100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>490800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>483700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>470100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>457900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>459100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>448000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>437200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>437400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E48" s="3">
         <v>248700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>248800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>252200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>248500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>241600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>207900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>202100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>197400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>191600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>192500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>190300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>186700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>185900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>183600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>181100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>184800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>436800</v>
+      </c>
+      <c r="E49" s="3">
         <v>438500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>440500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>441200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>442500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>415500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>417100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>419100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>448200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>450000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>451900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>454000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>456100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>463100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>464800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>467100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>469600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E52" s="3">
         <v>23200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>24300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>19100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15500</v>
-      </c>
-      <c r="M52" s="3">
-        <v>14700</v>
       </c>
       <c r="N52" s="3">
         <v>14700</v>
       </c>
       <c r="O52" s="3">
+        <v>14700</v>
+      </c>
+      <c r="P52" s="3">
         <v>14000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1367900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1349200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1321900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1272500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1246600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1191900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1147400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1174900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1179300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1148000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1142800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1129200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1114600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1120600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1108800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1097700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1103500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,81 +3141,85 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E57" s="3">
         <v>51800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>51000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>50200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>50800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>51600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>49600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>43400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>48200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>44100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>45200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>43600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>38500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>37500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>34400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>37200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E58" s="3">
         <v>6500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12800</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="I58" s="3">
-        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>500</v>
@@ -3097,240 +3231,255 @@
         <v>500</v>
       </c>
       <c r="M58" s="3">
+        <v>500</v>
+      </c>
+      <c r="N58" s="3">
         <v>19200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>18000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>16700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>14200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E59" s="3">
         <v>42000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>46300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>40300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>40100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>39700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>41800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>39500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>42600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>48600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>44500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>41000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>88500</v>
+      </c>
+      <c r="E60" s="3">
         <v>100300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>103800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>99000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>103900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>99900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>90100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>83600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>90500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>84800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>105200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>101100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>97900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>101600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>93100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>91200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>83100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16600</v>
+        <v>13800</v>
       </c>
       <c r="E61" s="3">
         <v>16600</v>
       </c>
       <c r="F61" s="3">
+        <v>16600</v>
+      </c>
+      <c r="G61" s="3">
         <v>16200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>25000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>26300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>43200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>114100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>124000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>143800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>154100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>180000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>203500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>222400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>255600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>282000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>318300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>93500</v>
+      </c>
+      <c r="E62" s="3">
         <v>89600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>83600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>78100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>75800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>68500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>45500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>45600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>52500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>52800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>48900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>49500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>43900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>44900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>43100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>39000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>195800</v>
+      </c>
+      <c r="E66" s="3">
         <v>206600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>203900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>193300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>204700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>194600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>178800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>243300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>267000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>281400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>308200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>330600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>345300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>368900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>391800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>412200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>437400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>812300</v>
+      </c>
+      <c r="E72" s="3">
         <v>791900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>769200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>735500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>705000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>673700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>641900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>610500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>594300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>564200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>537000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>510300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>486500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>471600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>448700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>427100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>414300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1172100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1142600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1118000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1079200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1041800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>997300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>968600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>931700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>912300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>866600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>834600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>798500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>769300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>751700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>717000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>685500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E81" s="3">
         <v>22700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>33800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>30500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>31300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>30500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>31400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>30100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>27500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>26700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>14800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>21800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>21600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4233,52 +4432,55 @@
         <v>8400</v>
       </c>
       <c r="E83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F83" s="3">
         <v>8100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>7100</v>
       </c>
       <c r="P83" s="3">
         <v>7100</v>
       </c>
       <c r="Q83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="R83" s="3">
         <v>6900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E89" s="3">
         <v>48400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>44400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>46600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>24500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>40100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>29500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>33800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>37800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>28500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>24200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>39800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>26700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>36100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-41700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>10900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-15600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>21300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-26400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-68900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-10000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-25200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-21400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-21200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-18600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-28800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-21100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-27700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E102" s="3">
         <v>40400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>42900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>23900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-51800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>21300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ROLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>ROLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>145900</v>
+      </c>
+      <c r="E8" s="3">
         <v>146300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>156500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>185800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>177000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>181900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>182700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>182200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>171500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>172900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>176000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>179900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>166900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>164300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>163900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>160200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>146700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>153900</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>90300</v>
+      </c>
+      <c r="E9" s="3">
         <v>89700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>97000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>109300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>106300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>110800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>112000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>109200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>103300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>105100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>108200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>110200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>102100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>102400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>101900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>97000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>94300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>97200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E10" s="3">
         <v>56600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>59500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>76500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>70700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>71100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>70700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>73000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>68200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>67800</v>
       </c>
       <c r="M10" s="3">
         <v>67800</v>
       </c>
       <c r="N10" s="3">
+        <v>67800</v>
+      </c>
+      <c r="O10" s="3">
         <v>69700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>64800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>61900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>62000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>63200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>52400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,28 +1064,31 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1083,17 +1102,17 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,7 +1135,7 @@
         <v>2600</v>
       </c>
       <c r="E15" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F15" s="3">
         <v>2500</v>
@@ -1122,31 +1144,31 @@
         <v>2500</v>
       </c>
       <c r="H15" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="I15" s="3">
         <v>2300</v>
       </c>
       <c r="J15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K15" s="3">
         <v>2400</v>
       </c>
       <c r="L15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M15" s="3">
         <v>2600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2400</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2300</v>
       </c>
       <c r="O15" s="3">
         <v>2300</v>
       </c>
       <c r="P15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="Q15" s="3">
         <v>2400</v>
@@ -1155,13 +1177,16 @@
         <v>2400</v>
       </c>
       <c r="S15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T15" s="3">
         <v>2300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>119300</v>
+      </c>
+      <c r="E17" s="3">
         <v>120000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>127700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>142300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>139600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>144600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>144200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>141800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>151600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>137000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>140000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>141900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>133600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>138900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>131900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>125800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>126100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E18" s="3">
         <v>26300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>28800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>43500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>37400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>37300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>38500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>40400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>35900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>36000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>38000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>33300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>25400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>32000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>34400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>20600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,13 +1345,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
         <v>-500</v>
@@ -1328,7 +1361,7 @@
         <v>-500</v>
       </c>
       <c r="G20" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="H20" s="3">
         <v>-700</v>
@@ -1337,40 +1370,43 @@
         <v>-700</v>
       </c>
       <c r="J20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1414,58 @@
         <v>34200</v>
       </c>
       <c r="E21" s="3">
+        <v>34200</v>
+      </c>
+      <c r="F21" s="3">
         <v>36700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>51100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>44700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>44400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>45300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>47100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>41700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>40600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>43000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>38300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>30400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>36500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>39200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>25400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E23" s="3">
         <v>25800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>28300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>42900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>36800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>36600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>37800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>39700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>34100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>33300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>35800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>31300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>23300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>29400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>32300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>18600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E24" s="3">
         <v>5400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E26" s="3">
         <v>20400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>22700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>33900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>30500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>31300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>30500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>31400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>27500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>25700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>24600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>14800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>21800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>21600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E27" s="3">
         <v>20400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>22700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>33900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>31300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>30500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>31400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>27500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>25700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>24600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>14800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>21800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>21600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1828,11 +1888,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>-100</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1852,14 +1912,14 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>1000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-800</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,13 +2051,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
         <v>500</v>
@@ -2000,7 +2069,7 @@
         <v>500</v>
       </c>
       <c r="G32" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="H32" s="3">
         <v>700</v>
@@ -2009,96 +2078,102 @@
         <v>700</v>
       </c>
       <c r="J32" s="3">
+        <v>700</v>
+      </c>
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E33" s="3">
         <v>20400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>22700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>33800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>30500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>31300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>30500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>31400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>30100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>27500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>26700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>14800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>21800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>21600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>12800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E35" s="3">
         <v>20400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>22700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>33800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>31300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>30500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>31400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>30100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>27500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>26700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>14800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>21800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>21600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>12800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,87 +2399,91 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>126200</v>
+      </c>
+      <c r="E41" s="3">
         <v>166400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>143600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>103300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>60300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>36400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>32700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>29900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>81700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>60400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>55700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>54200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>43800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>42900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>45500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>38900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>39500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>75500</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2426,255 +2515,270 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>108600</v>
+      </c>
+      <c r="E43" s="3">
         <v>112700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>115000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>129000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>121800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>129600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>130100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>130700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>116700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>119500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>116200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>116900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>109900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>109700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>112600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>109700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>98300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>372100</v>
+      </c>
+      <c r="E44" s="3">
         <v>371500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>371000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>367500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>362100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>354000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>342900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>335000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>329500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>324200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>311300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>306100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>303000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>297300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>292400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>289600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>287400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>287200</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E45" s="3">
         <v>10400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>692300</v>
+      </c>
+      <c r="E46" s="3">
         <v>661000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>638800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>612000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>554700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>534000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>514400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>503300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>538300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>517100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>490800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>483700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>470100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>457900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>459100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>448000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>437200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>437400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>2100</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2706,120 +2810,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>249600</v>
+      </c>
+      <c r="E48" s="3">
         <v>244000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>248700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>248800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>252200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>248500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>241600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>207900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>202100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>197400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>191600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>192500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>190300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>186700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>185900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>183600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>181100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>184800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>435800</v>
+      </c>
+      <c r="E49" s="3">
         <v>436800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>438500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>440500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>441200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>442500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>415500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>417100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>419100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>448200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>450000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>451900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>454000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>456100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>463100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>464800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>467100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>469600</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E52" s="3">
         <v>26000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>23200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>24300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>21600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>19100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15500</v>
-      </c>
-      <c r="N52" s="3">
-        <v>14700</v>
       </c>
       <c r="O52" s="3">
         <v>14700</v>
       </c>
       <c r="P52" s="3">
+        <v>14700</v>
+      </c>
+      <c r="Q52" s="3">
         <v>14000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1409000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1367900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1349200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1321900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1272500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1246600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1191900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1147400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1174900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1179300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1148000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1142800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1129200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1114600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1120600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1108800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1097700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1103500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,87 +3271,91 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E57" s="3">
         <v>39600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>51800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>51000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>50200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>50800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>51600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>49600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>43400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>48200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>44100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>45200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>43600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>38500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>37500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>34400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>37200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E58" s="3">
         <v>6600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12800</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J58" s="3">
-        <v>500</v>
       </c>
       <c r="K58" s="3">
         <v>500</v>
@@ -3234,28 +3367,31 @@
         <v>500</v>
       </c>
       <c r="N58" s="3">
+        <v>500</v>
+      </c>
+      <c r="O58" s="3">
         <v>19200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>18000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>16700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>14200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,223 +3399,235 @@
         <v>42300</v>
       </c>
       <c r="E59" s="3">
+        <v>42300</v>
+      </c>
+      <c r="F59" s="3">
         <v>42000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>46300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>42100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>40300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>48200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>40100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>39700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>41800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>40800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>39500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>42600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>48600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>44500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>41000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>88400</v>
+      </c>
+      <c r="E60" s="3">
         <v>88500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>100300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>103800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>99000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>103900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>99900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>90100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>83600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>90500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>84800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>105200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>101100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>97900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>101600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>93100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>91200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>83100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E61" s="3">
         <v>13800</v>
-      </c>
-      <c r="E61" s="3">
-        <v>16600</v>
       </c>
       <c r="F61" s="3">
         <v>16600</v>
       </c>
       <c r="G61" s="3">
+        <v>16600</v>
+      </c>
+      <c r="H61" s="3">
         <v>16200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>25000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>26300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>43200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>114100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>124000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>143800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>154100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>180000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>203500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>222400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>255600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>282000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>318300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>101400</v>
+      </c>
+      <c r="E62" s="3">
         <v>93500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>89600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>83600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>78100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>75800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>68500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>45500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>45600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>52500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>52800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>48900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>49500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>43900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>44900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>43100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>39000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>204200</v>
+      </c>
+      <c r="E66" s="3">
         <v>195800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>206600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>203900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>193300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>204700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>194600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>178800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>243300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>267000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>281400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>308200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>330600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>345300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>368900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>391800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>412200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>437400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>833900</v>
+      </c>
+      <c r="E72" s="3">
         <v>812300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>791900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>769200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>735500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>705000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>673700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>641900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>610500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>594300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>564200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>537000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>510300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>486500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>471600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>448700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>427100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>414300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1204800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1172100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1142600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1118000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1079200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1041800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>997300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>968600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>931700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>912300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>866600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>834600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>798500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>769300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>751700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>717000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>685500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E81" s="3">
         <v>20400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>22700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>33800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>30500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>31300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>30500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>31400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>30100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>27500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>26700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>14800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>21800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>21600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>12800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="E83" s="3">
         <v>8400</v>
       </c>
       <c r="F83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G83" s="3">
         <v>8100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>7100</v>
       </c>
       <c r="Q83" s="3">
         <v>7100</v>
       </c>
       <c r="R83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="S83" s="3">
         <v>6900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E89" s="3">
         <v>26100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>48400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>44400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>46600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>24500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>40100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>29500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>24000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>33800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>37800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>28500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>24200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>39800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>26700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>36100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-41700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>10900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>21300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-26400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-68900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-25200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-21400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-21200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-28800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-21100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-27700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
       <c r="G101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E102" s="3">
         <v>22700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>40400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>42900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>23900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-51800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>21300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ROLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>ROLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44191</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>160300</v>
+      </c>
+      <c r="E8" s="3">
         <v>145900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>146300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>156500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>185800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>177000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>181900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>182700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>182200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>171500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>172900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>176000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>179900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>166900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>164300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>163900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>160200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>146700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>153900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>97800</v>
+      </c>
+      <c r="E9" s="3">
         <v>90300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>89700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>97000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>109300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>106300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>110800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>112000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>109200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>103300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>105100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>108200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>110200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>102100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>102400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>101900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>97000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>94300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>97200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E10" s="3">
         <v>55600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>56600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>59500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>76500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>70700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>71100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>70700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>73000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>68200</v>
-      </c>
-      <c r="M10" s="3">
-        <v>67800</v>
       </c>
       <c r="N10" s="3">
         <v>67800</v>
       </c>
       <c r="O10" s="3">
+        <v>67800</v>
+      </c>
+      <c r="P10" s="3">
         <v>69700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>64800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>61900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>62000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>63200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>52400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,31 +1084,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1105,17 +1125,17 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1126,19 +1146,22 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E15" s="3">
         <v>2600</v>
       </c>
       <c r="F15" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G15" s="3">
         <v>2500</v>
@@ -1147,31 +1170,31 @@
         <v>2500</v>
       </c>
       <c r="I15" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="J15" s="3">
         <v>2300</v>
       </c>
       <c r="K15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L15" s="3">
         <v>2400</v>
       </c>
       <c r="M15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N15" s="3">
         <v>2600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2400</v>
-      </c>
-      <c r="O15" s="3">
-        <v>2300</v>
       </c>
       <c r="P15" s="3">
         <v>2300</v>
       </c>
       <c r="Q15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="R15" s="3">
         <v>2400</v>
@@ -1180,13 +1203,16 @@
         <v>2400</v>
       </c>
       <c r="T15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U15" s="3">
         <v>2300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>130600</v>
+      </c>
+      <c r="E17" s="3">
         <v>119300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>120000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>127700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>142300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>139600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>144600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>144200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>141800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>151600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>137000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>140000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>141900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>133600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>138900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>131900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>125800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>126100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E18" s="3">
         <v>26600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>28800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>43500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>37400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>37300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>38500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>40400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>35900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>36000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>38000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>33300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>25400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>32000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>34400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>20600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,16 +1379,17 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-500</v>
       </c>
       <c r="F20" s="3">
         <v>-500</v>
@@ -1364,7 +1398,7 @@
         <v>-500</v>
       </c>
       <c r="H20" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="I20" s="3">
         <v>-700</v>
@@ -1373,99 +1407,105 @@
         <v>-700</v>
       </c>
       <c r="K20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>34200</v>
+        <v>37600</v>
       </c>
       <c r="E21" s="3">
         <v>34200</v>
       </c>
       <c r="F21" s="3">
+        <v>34200</v>
+      </c>
+      <c r="G21" s="3">
         <v>36700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>51100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>44700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>44400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>45300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>47100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>41700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>40600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>43000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>38300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>30400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>36500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>39200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>25400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E23" s="3">
         <v>26300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>25800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>28300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>42900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>36800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>36600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>37800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>39700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>34100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>33300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>35800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>31300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>23300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>29400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>32300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>18600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1591,58 +1637,61 @@
         <v>4700</v>
       </c>
       <c r="E24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F24" s="3">
         <v>5400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E26" s="3">
         <v>21600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>20400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>22700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>33900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>30500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>31300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>30500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>31400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>27500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>25700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>24600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>14800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>21800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>21600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>12800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E27" s="3">
         <v>21600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>20400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>22700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>33900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>30500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>31300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>30500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>31400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>27500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>25700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>24600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>14800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>21800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>21600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>12800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,13 +1935,16 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1891,11 +1952,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>-100</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1915,14 +1976,14 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>1000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,16 +2121,19 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>500</v>
       </c>
       <c r="F32" s="3">
         <v>500</v>
@@ -2072,7 +2142,7 @@
         <v>500</v>
       </c>
       <c r="H32" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I32" s="3">
         <v>700</v>
@@ -2081,99 +2151,105 @@
         <v>700</v>
       </c>
       <c r="K32" s="3">
+        <v>700</v>
+      </c>
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E33" s="3">
         <v>21600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>20400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>22700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>33800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>30500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>31300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>30500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>31400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>30100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>27500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>26700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>14800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>21800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>21600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>12800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E35" s="3">
         <v>21600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>20400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>22700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>33800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>30500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>31300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>30500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>31400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>30100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>27500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>26700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>14800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>21800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>21600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>12800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44191</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,75 +2486,79 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>151100</v>
+      </c>
+      <c r="E41" s="3">
         <v>126200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>166400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>143600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>103300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>60300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>36400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>32700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>81700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>60400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>55700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>54200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>43800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>42900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>45500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>38900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>39500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E42" s="3">
         <v>75500</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -2485,8 +2575,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2518,252 +2608,267 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>116100</v>
+      </c>
+      <c r="E43" s="3">
         <v>108600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>112700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>115000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>129000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>121800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>129600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>130100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>130700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>116700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>119500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>116200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>116900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>109900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>109700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>112600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>109700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>98300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>364100</v>
+      </c>
+      <c r="E44" s="3">
         <v>372100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>371500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>371000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>367500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>362100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>354000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>342900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>335000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>329500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>324200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>311300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>306100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>303000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>297300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>292400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>289600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>287400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>287200</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E45" s="3">
         <v>9900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>728200</v>
+      </c>
+      <c r="E46" s="3">
         <v>692300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>661000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>638800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>612000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>554700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>534000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>514400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>503300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>538300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>517100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>490800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>483700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>470100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>457900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>459100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>448000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>437200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>437400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
         <v>2100</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -2780,8 +2885,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2813,126 +2918,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>243900</v>
+      </c>
+      <c r="E48" s="3">
         <v>249600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>244000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>248700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>248800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>252200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>248500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>241600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>207900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>202100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>197400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>191600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>192500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>190300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>186700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>185900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>183600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>181100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>184800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>431900</v>
+      </c>
+      <c r="E49" s="3">
         <v>435800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>436800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>438500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>440500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>441200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>442500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>415500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>417100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>419100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>448200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>450000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>451900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>454000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>456100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>463100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>464800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>467100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>469600</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E52" s="3">
         <v>29100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>26000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>23200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>24300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>21600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>19100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15500</v>
-      </c>
-      <c r="O52" s="3">
-        <v>14700</v>
       </c>
       <c r="P52" s="3">
         <v>14700</v>
       </c>
       <c r="Q52" s="3">
+        <v>14700</v>
+      </c>
+      <c r="R52" s="3">
         <v>14000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>12200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1434300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1409000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1367900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1349200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1321900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1272500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1246600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1191900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1147400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1174900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1179300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1148000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1142800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1129200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1114600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1120600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1108800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1097700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1103500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,93 +3402,97 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E57" s="3">
         <v>39900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>39600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>51800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>51000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>50200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>50800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>51600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>49600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>43400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>48200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>44100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>45200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>43600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>38500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>37500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>34400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>37200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E58" s="3">
         <v>6100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12800</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="K58" s="3">
-        <v>500</v>
       </c>
       <c r="L58" s="3">
         <v>500</v>
@@ -3370,264 +3504,279 @@
         <v>500</v>
       </c>
       <c r="O58" s="3">
+        <v>500</v>
+      </c>
+      <c r="P58" s="3">
         <v>19200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>18000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>16700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>15500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>14200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>13000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42300</v>
+        <v>49300</v>
       </c>
       <c r="E59" s="3">
         <v>42300</v>
       </c>
       <c r="F59" s="3">
+        <v>42300</v>
+      </c>
+      <c r="G59" s="3">
         <v>42000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>46300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>42100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>40300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>48200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>40100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>39700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>41800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>40300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>40800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>39500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>42600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>48600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>44500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>41000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>88200</v>
+      </c>
+      <c r="E60" s="3">
         <v>88400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>88500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>100300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>103800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>99000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>103900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>99900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>90100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>83600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>90500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>84800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>105200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>101100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>97900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>101600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>93100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>91200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>83100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E61" s="3">
         <v>14400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13800</v>
-      </c>
-      <c r="F61" s="3">
-        <v>16600</v>
       </c>
       <c r="G61" s="3">
         <v>16600</v>
       </c>
       <c r="H61" s="3">
+        <v>16600</v>
+      </c>
+      <c r="I61" s="3">
         <v>16200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>25000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>26300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>43200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>114100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>124000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>143800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>154100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>180000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>203500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>222400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>255600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>282000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>318300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>102600</v>
+      </c>
+      <c r="E62" s="3">
         <v>101400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>93500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>89600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>83600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>78100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>75800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>68500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>45500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>45600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>52500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>52800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>48900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>49500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>43900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>44900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>43100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>39000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>204300</v>
+      </c>
+      <c r="E66" s="3">
         <v>204200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>195800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>206600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>203900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>193300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>204700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>194600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>178800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>243300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>267000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>281400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>308200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>330600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>345300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>368900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>391800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>412200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>437400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>858900</v>
+      </c>
+      <c r="E72" s="3">
         <v>833900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>812300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>791900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>769200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>735500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>705000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>673700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>641900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>610500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>594300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>564200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>537000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>510300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>486500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>471600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>448700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>427100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>414300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1230000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1204800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1172100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1142600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1118000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1079200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1041800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>997300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>968600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>931700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>912300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>866600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>834600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>798500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>769300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>751700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>717000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>685500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44191</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E81" s="3">
         <v>21600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>20400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>22700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>33800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>30500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>31300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>30500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>31400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>30100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>27500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>26700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>14800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>21800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>21600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>12800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E83" s="3">
         <v>8000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>8400</v>
       </c>
       <c r="F83" s="3">
         <v>8400</v>
       </c>
       <c r="G83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H83" s="3">
         <v>8100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>7100</v>
       </c>
       <c r="R83" s="3">
         <v>7100</v>
       </c>
       <c r="S83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="T83" s="3">
         <v>6900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E89" s="3">
         <v>36100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>26100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>48400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>44400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>46600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>24500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>40100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>29500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>24000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>33800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>37800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>28500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>24200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>39800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>26700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>36100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-77900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-41700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>10900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-15600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>21300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-26400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-68900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-25200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-21400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-18600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-28800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-21100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-27700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-40200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>22700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>40400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>42900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>23900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-51800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>21300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>10300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ROLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>ROLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,294 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44191</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>156200</v>
+      </c>
+      <c r="E8" s="3">
         <v>160300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>145900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>146300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>156500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>185800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>177000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>181900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>182700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>182200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>171500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>172900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>176000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>179900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>166900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>164300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>163900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>160200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>146700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>153900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E9" s="3">
         <v>97800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>90300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>89700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>97000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>109300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>106300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>110800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>112000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>109200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>103300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>105100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>108200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>110200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>102100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>102400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>101900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>97000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>94300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>97200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E10" s="3">
         <v>62500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>55600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>56600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>59500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>76500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>70700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>71100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>70700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>73000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>68200</v>
-      </c>
-      <c r="N10" s="3">
-        <v>67800</v>
       </c>
       <c r="O10" s="3">
         <v>67800</v>
       </c>
       <c r="P10" s="3">
+        <v>67800</v>
+      </c>
+      <c r="Q10" s="3">
         <v>69700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>64800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>61900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>62000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>63200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>52400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,34 +1103,37 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>900</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1128,17 +1147,17 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1149,22 +1168,25 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E15" s="3">
         <v>2500</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2600</v>
       </c>
       <c r="F15" s="3">
         <v>2600</v>
       </c>
       <c r="G15" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H15" s="3">
         <v>2500</v>
@@ -1173,31 +1195,31 @@
         <v>2500</v>
       </c>
       <c r="J15" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="K15" s="3">
         <v>2300</v>
       </c>
       <c r="L15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M15" s="3">
         <v>2400</v>
       </c>
       <c r="N15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O15" s="3">
         <v>2600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2400</v>
-      </c>
-      <c r="P15" s="3">
-        <v>2300</v>
       </c>
       <c r="Q15" s="3">
         <v>2300</v>
       </c>
       <c r="R15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="S15" s="3">
         <v>2400</v>
@@ -1206,13 +1228,16 @@
         <v>2400</v>
       </c>
       <c r="U15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V15" s="3">
         <v>2300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>125500</v>
+      </c>
+      <c r="E17" s="3">
         <v>130600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>119300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>120000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>127700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>142300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>139600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>144600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>144200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>141800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>151600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>137000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>140000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>141900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>133600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>138900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>131900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>125800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>126100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E18" s="3">
         <v>29700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>26300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>28800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>43500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>37400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>37300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>40400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>19900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>35900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>36000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>38000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>33300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>25400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>32000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>34400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>20600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,19 +1412,20 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-500</v>
       </c>
       <c r="G20" s="3">
         <v>-500</v>
@@ -1401,7 +1434,7 @@
         <v>-500</v>
       </c>
       <c r="I20" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="J20" s="3">
         <v>-700</v>
@@ -1410,102 +1443,108 @@
         <v>-700</v>
       </c>
       <c r="L20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E21" s="3">
         <v>37600</v>
-      </c>
-      <c r="E21" s="3">
-        <v>34200</v>
       </c>
       <c r="F21" s="3">
         <v>34200</v>
       </c>
       <c r="G21" s="3">
+        <v>34200</v>
+      </c>
+      <c r="H21" s="3">
         <v>36700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>51100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>44700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>44400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>45300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>47100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>41700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>40600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>43000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>38300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>30400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>36500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>39200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>25400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1605,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E23" s="3">
         <v>29600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>26300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>25800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>28300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>42900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>36800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>36600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>37800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>39700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>34100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>33300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>35800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>31300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>23300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>29400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>32300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>18600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="E24" s="3">
         <v>4700</v>
       </c>
       <c r="F24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G24" s="3">
         <v>5400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E26" s="3">
         <v>25000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>20400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>22700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>33900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>30500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>31300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>30500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>31400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>30100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>27500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>25700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>24600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>14800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>21800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>21600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>12800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E27" s="3">
         <v>25000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>20400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>22700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>33900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>30500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>31300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>31400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>27500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>25700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>24600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>14800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>21800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>21600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>12800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,16 +1995,19 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1955,11 +2015,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>-100</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1979,14 +2039,14 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>1000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-800</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2060,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,19 +2190,22 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>500</v>
       </c>
       <c r="G32" s="3">
         <v>500</v>
@@ -2145,7 +2214,7 @@
         <v>500</v>
       </c>
       <c r="I32" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="J32" s="3">
         <v>700</v>
@@ -2154,102 +2223,108 @@
         <v>700</v>
       </c>
       <c r="L32" s="3">
+        <v>700</v>
+      </c>
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E33" s="3">
         <v>25000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>20400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>22700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>33800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>30500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>31300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>30500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>31400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>30100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>27500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>26700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>23800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>14800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>21800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>21600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>12800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E35" s="3">
         <v>25000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>20400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>22700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>33800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>30500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>31300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>30500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>31400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>30100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>27500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>26700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>23800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>14800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>21800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>21600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>12800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44191</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,81 +2572,85 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>175800</v>
+      </c>
+      <c r="E41" s="3">
         <v>151100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>126200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>166400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>143600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>103300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>60300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>36400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>32700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>81700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>60400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>55700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>54200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>43800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>42900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>45500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>38900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>39500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>120300</v>
+      </c>
+      <c r="E42" s="3">
         <v>90200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>75500</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -2578,8 +2667,8 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2611,267 +2700,282 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E43" s="3">
         <v>116100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>108600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>112700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>115000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>129000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>121800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>129600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>130100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>130700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>116700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>119500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>116200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>116900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>109900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>109700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>112600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>109700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>98300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>369900</v>
+      </c>
+      <c r="E44" s="3">
         <v>364100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>372100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>371500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>371000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>367500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>362100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>354000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>342900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>335000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>329500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>324200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>311300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>306100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>303000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>297300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>292400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>289600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>287400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>287200</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E45" s="3">
         <v>6700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>786100</v>
+      </c>
+      <c r="E46" s="3">
         <v>728200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>692300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>661000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>638800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>612000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>554700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>534000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>514400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>503300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>538300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>517100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>490800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>483700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>470100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>457900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>459100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>448000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>437200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>437400</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
         <v>2100</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2888,8 +2992,8 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2921,132 +3025,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>240900</v>
+      </c>
+      <c r="E48" s="3">
         <v>243900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>249600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>244000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>248700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>248800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>252200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>248500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>241600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>207900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>202100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>197400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>191600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>192500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>190300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>186700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>185900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>183600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>181100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>184800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>431700</v>
+      </c>
+      <c r="E49" s="3">
         <v>431900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>435800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>436800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>438500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>440500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>441200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>442500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>415500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>417100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>419100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>448200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>450000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>451900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>454000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>456100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>463100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>464800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>467100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>469600</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3285,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E52" s="3">
         <v>30200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>29100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>26000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>23200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>24300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>21600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>15500</v>
-      </c>
-      <c r="P52" s="3">
-        <v>14700</v>
       </c>
       <c r="Q52" s="3">
         <v>14700</v>
       </c>
       <c r="R52" s="3">
+        <v>14700</v>
+      </c>
+      <c r="S52" s="3">
         <v>14000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>12400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>12200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3415,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1490600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1434300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1409000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1367900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1349200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1321900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1272500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1246600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1191900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1147400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1174900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1179300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1148000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1142800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1129200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1114600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1120600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1108800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1097700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1103500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,99 +3532,103 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E57" s="3">
         <v>36300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>39900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>39600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>51800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>51000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>50200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>50800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>51600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>49600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>43400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>48200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>44100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>45200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>43600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>38500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>37500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>34400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>37200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>2600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12800</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="L58" s="3">
-        <v>500</v>
       </c>
       <c r="M58" s="3">
         <v>500</v>
@@ -3507,276 +3640,291 @@
         <v>500</v>
       </c>
       <c r="P58" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>19200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>18000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>16700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>15500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>14200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>13000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E59" s="3">
         <v>49300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>42300</v>
       </c>
       <c r="F59" s="3">
         <v>42300</v>
       </c>
       <c r="G59" s="3">
+        <v>42300</v>
+      </c>
+      <c r="H59" s="3">
         <v>42000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>46300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>42100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>40300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>48200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>39700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>41800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>40300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>40800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>39500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>42600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>48600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>44500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>41000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>95500</v>
+      </c>
+      <c r="E60" s="3">
         <v>88200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>88400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>88500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>100300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>103800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>99000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>103900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>99900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>90100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>83600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>90500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>84800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>105200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>101100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>97900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>101600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>93100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>91200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>83100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E61" s="3">
         <v>13500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>16600</v>
       </c>
       <c r="H61" s="3">
         <v>16600</v>
       </c>
       <c r="I61" s="3">
+        <v>16600</v>
+      </c>
+      <c r="J61" s="3">
         <v>16200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>25000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>43200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>114100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>124000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>143800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>154100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>180000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>203500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>222400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>255600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>282000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>318300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>110500</v>
+      </c>
+      <c r="E62" s="3">
         <v>102600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>101400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>93500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>89600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>83600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>78100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>75800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>68500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>45500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>45600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>52500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>52800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>48900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>49500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>43900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>44900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>43100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>39000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>216200</v>
+      </c>
+      <c r="E66" s="3">
         <v>204300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>204200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>195800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>206600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>203900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>193300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>204700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>194600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>178800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>243300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>267000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>281400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>308200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>330600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>345300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>368900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>391800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>412200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>437400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4465,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>884900</v>
+      </c>
+      <c r="E72" s="3">
         <v>858900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>833900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>812300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>791900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>769200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>735500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>705000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>673700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>641900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>610500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>594300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>564200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>537000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>510300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>486500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>471600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>448700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>427100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>414300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4725,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1274400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1230000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1204800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1172100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1142600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1118000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1079200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1041800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>997300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>968600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>931700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>912300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>866600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>834600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>798500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>769300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>751700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>717000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>685500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44191</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E81" s="3">
         <v>25000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>20400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>22700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>33800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>30500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>31300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>30500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>31400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>30100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>27500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>26700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>23800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>14800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>21800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>21600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>12800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5017,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E83" s="3">
         <v>7900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>8400</v>
       </c>
       <c r="G83" s="3">
         <v>8400</v>
       </c>
       <c r="H83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I83" s="3">
         <v>8100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>7100</v>
       </c>
       <c r="S83" s="3">
         <v>7100</v>
       </c>
       <c r="T83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="U83" s="3">
         <v>6900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>6800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E89" s="3">
         <v>41900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>36100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>48400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>44400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>46600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>24500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>40100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>29500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>24000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>33800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>37800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>28500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>24200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>39800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>26700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>36100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-77900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-41700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>10900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6040,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>21300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-26400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-68900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-10000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-25200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-21200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-18600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-28800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-21100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-27700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>-100</v>
       </c>
       <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E102" s="3">
         <v>24900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-40200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>22700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>40400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>42900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>23900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-51800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>21300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>10300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ROLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>ROLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,306 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44191</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>160900</v>
+      </c>
+      <c r="E8" s="3">
         <v>156200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>160300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>145900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>146300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>156500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>185800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>177000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>181900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>182700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>182200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>171500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>172900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>176000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>179900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>166900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>164300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>163900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>160200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>146700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>153900</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E9" s="3">
         <v>92400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>97800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>90300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>89700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>97000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>109300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>106300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>110800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>112000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>109200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>103300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>105100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>108200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>110200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>102100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>102400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>101900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>97000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>94300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>97200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E10" s="3">
         <v>63800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>62500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>55600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>56600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>59500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>76500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>70700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>71100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>70700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>73000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>68200</v>
-      </c>
-      <c r="O10" s="3">
-        <v>67800</v>
       </c>
       <c r="P10" s="3">
         <v>67800</v>
       </c>
       <c r="Q10" s="3">
+        <v>67800</v>
+      </c>
+      <c r="R10" s="3">
         <v>69700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>64800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>61900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>62000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>63200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>52400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,8 +1054,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,37 +1122,40 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>900</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1150,17 +1169,17 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1171,25 +1190,28 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E15" s="3">
         <v>2600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2600</v>
       </c>
       <c r="G15" s="3">
         <v>2600</v>
       </c>
       <c r="H15" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I15" s="3">
         <v>2500</v>
@@ -1198,31 +1220,31 @@
         <v>2500</v>
       </c>
       <c r="K15" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L15" s="3">
         <v>2300</v>
       </c>
       <c r="M15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="N15" s="3">
         <v>2400</v>
       </c>
       <c r="O15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P15" s="3">
         <v>2600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>2300</v>
       </c>
       <c r="R15" s="3">
         <v>2300</v>
       </c>
       <c r="S15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="T15" s="3">
         <v>2400</v>
@@ -1231,13 +1253,16 @@
         <v>2400</v>
       </c>
       <c r="V15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W15" s="3">
         <v>2300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1283,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>133800</v>
+      </c>
+      <c r="E17" s="3">
         <v>125500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>130600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>119300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>120000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>127700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>142300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>139600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>144600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>144200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>141800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>151600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>137000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>140000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>141900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>133600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>138900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>131900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>125800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>126100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E18" s="3">
         <v>30700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>29700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>26600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>26300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>28800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>43500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>37400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>37300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>38500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>40400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>35900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>36000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>38000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>33300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>25400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>32000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>34400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>20600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,22 +1445,23 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-500</v>
       </c>
       <c r="H20" s="3">
         <v>-500</v>
@@ -1437,7 +1470,7 @@
         <v>-500</v>
       </c>
       <c r="J20" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="K20" s="3">
         <v>-700</v>
@@ -1446,105 +1479,111 @@
         <v>-700</v>
       </c>
       <c r="M20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E21" s="3">
         <v>39100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>37600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>34200</v>
       </c>
       <c r="G21" s="3">
         <v>34200</v>
       </c>
       <c r="H21" s="3">
+        <v>34200</v>
+      </c>
+      <c r="I21" s="3">
         <v>36700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>51100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>44700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>44400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>45300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>47100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>41700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>40600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>43000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>38300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>30400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>36500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>39200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>25400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1608,138 +1647,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E23" s="3">
         <v>30900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>29600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>25800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>28300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>42900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>36800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>36600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>37800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>39700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>19000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>34100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>33300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>35800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>31300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>23300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>29400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>32300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>18600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E24" s="3">
         <v>4900</v>
-      </c>
-      <c r="E24" s="3">
-        <v>4700</v>
       </c>
       <c r="F24" s="3">
         <v>4700</v>
       </c>
       <c r="G24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H24" s="3">
         <v>5400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1851,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E26" s="3">
         <v>26000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>25000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>21600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>20400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>22700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>33900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>30500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>31300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>31400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>16200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>30100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>27500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>25700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>24600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>14800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>21800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>21600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>12800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E27" s="3">
         <v>26000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>25000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>21600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>20400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>22700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>33900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>30500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>31300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>31400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>30100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>27500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>25700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>24600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>14800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>21800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>21600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>12800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,19 +2055,22 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -2018,11 +2078,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2042,14 +2102,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>1000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-800</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2063,8 +2123,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,22 +2259,25 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>500</v>
       </c>
       <c r="H32" s="3">
         <v>500</v>
@@ -2217,7 +2286,7 @@
         <v>500</v>
       </c>
       <c r="J32" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K32" s="3">
         <v>700</v>
@@ -2226,105 +2295,111 @@
         <v>700</v>
       </c>
       <c r="M32" s="3">
+        <v>700</v>
+      </c>
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E33" s="3">
         <v>26000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>25000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>20400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>22700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>33800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>30500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>31300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>30500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>31400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>30100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>27500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>26700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>23800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>14800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>21800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>21600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>12800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2463,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E35" s="3">
         <v>26000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>25000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>20400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>22700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>33800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>30500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>31300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>30500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>31400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>30100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>27500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>26700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>23800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>14800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>21800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>21600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>12800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44191</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,87 +2658,91 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1348600</v>
+      </c>
+      <c r="E41" s="3">
         <v>175800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>151100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>126200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>166400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>143600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>103300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>60300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>36400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>32700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>81700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>60400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>55700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>54200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>43800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>42900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>45500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>38900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>39500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>120300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>90200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>75500</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -2670,8 +2759,8 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2703,268 +2792,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E43" s="3">
         <v>112000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>116100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>108600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>112700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>115000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>129000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>121800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>129600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>130100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>130700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>116700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>119500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>116200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>116900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>109900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>109700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>112600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>109700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>98300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>370700</v>
+      </c>
+      <c r="E44" s="3">
         <v>369900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>364100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>372100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>371500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>371000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>367500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>362100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>354000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>342900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>335000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>329500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>324200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>311300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>306100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>303000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>297300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>292400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>289600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>287400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>287200</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E45" s="3">
         <v>8200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>12100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1859900</v>
+      </c>
+      <c r="E46" s="3">
         <v>786100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>728200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>692300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>661000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>638800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>612000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>554700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>534000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>514400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>503300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>538300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>517100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>490800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>483700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>470100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>457900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>459100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>448000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>437200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>437400</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2974,11 +3078,11 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3">
         <v>2100</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -2995,8 +3099,8 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3028,138 +3132,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>237300</v>
+      </c>
+      <c r="E48" s="3">
         <v>240900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>243900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>249600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>244000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>248700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>248800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>252200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>248500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>241600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>207900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>202100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>197400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>191600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>192500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>190300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>186700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>185900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>183600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>181100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>184800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>428700</v>
+      </c>
+      <c r="E49" s="3">
         <v>431700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>431900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>435800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>436800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>438500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>440500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>441200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>442500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>415500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>417100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>419100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>448200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>450000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>451900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>454000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>456100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>463100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>464800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>467100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>469600</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,73 +3404,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E52" s="3">
         <v>31800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>29100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>26000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>23200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>24300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>21600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15500</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>14700</v>
       </c>
       <c r="R52" s="3">
         <v>14700</v>
       </c>
       <c r="S52" s="3">
+        <v>14700</v>
+      </c>
+      <c r="T52" s="3">
         <v>14000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>12600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>12400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>12200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3540,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2567800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1490600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1434300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1409000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1367900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1349200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1321900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1272500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1246600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1191900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1147400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1174900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1179300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1148000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1142800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1129200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1114600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1120600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1108800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1097700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1103500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,73 +3662,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E57" s="3">
         <v>42700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>39900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>39600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>51800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>51000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>50200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>50800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>51600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>49600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>43400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>48200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>44100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>45200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>43600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>38500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>37500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>34400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>37200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3607,31 +3740,31 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>2600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12800</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="M58" s="3">
-        <v>500</v>
       </c>
       <c r="N58" s="3">
         <v>500</v>
@@ -3643,288 +3776,303 @@
         <v>500</v>
       </c>
       <c r="Q58" s="3">
+        <v>500</v>
+      </c>
+      <c r="R58" s="3">
         <v>19200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>18000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>16700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>15500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>14200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>13000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E59" s="3">
         <v>52300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>42300</v>
       </c>
       <c r="G59" s="3">
         <v>42300</v>
       </c>
       <c r="H59" s="3">
+        <v>42300</v>
+      </c>
+      <c r="I59" s="3">
         <v>42000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>46300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>42100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>40300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>48200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>39700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>41800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>40300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>40800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>39500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>42600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>48600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>44500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>41000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E60" s="3">
         <v>95500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>88200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>88400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>88500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>103800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>99000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>103900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>99900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>90100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>83600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>90500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>84800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>105200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>101100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>97900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>101600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>93100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>91200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>83100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E61" s="3">
         <v>10200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13800</v>
-      </c>
-      <c r="H61" s="3">
-        <v>16600</v>
       </c>
       <c r="I61" s="3">
         <v>16600</v>
       </c>
       <c r="J61" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K61" s="3">
         <v>16200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>43200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>114100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>124000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>143800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>154100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>180000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>203500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>222400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>255600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>282000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>318300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E62" s="3">
         <v>110500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>102600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>101400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>93500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>89600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>83600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>78100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>75800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>68500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>45500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>45600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>52500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>52800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>48900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>49500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>43900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>44900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>43100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>39000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4272,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>230700</v>
+      </c>
+      <c r="E66" s="3">
         <v>216200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>204300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>204200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>195800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>206600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>203900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>193300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>204700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>194600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>178800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>243300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>267000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>281400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>308200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>330600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>345300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>368900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>391800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>412200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>437400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4502,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +4638,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>891300</v>
+      </c>
+      <c r="E72" s="3">
         <v>884900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>858900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>833900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>812300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>791900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>769200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>735500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>705000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>673700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>641900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>610500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>594300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>564200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>537000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>510300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>486500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>471600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>448700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>427100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>414300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +4910,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2337100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1274400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1230000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1204800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1172100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1142600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1118000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1079200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1041800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>997300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>968600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>931700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>912300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>866600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>834600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>798500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>769300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>751700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>717000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>685500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5046,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44191</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E81" s="3">
         <v>26000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>25000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>20400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>22700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>33800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>30500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>31300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>30500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>31400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>30100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>27500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>26700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>23800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>14800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>21800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>21600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>12800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,73 +5215,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E83" s="3">
         <v>8200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>8400</v>
       </c>
       <c r="H83" s="3">
         <v>8400</v>
       </c>
       <c r="I83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J83" s="3">
         <v>8100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>7100</v>
       </c>
       <c r="T83" s="3">
         <v>7100</v>
       </c>
       <c r="U83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="V83" s="3">
         <v>6900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>6800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5621,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E89" s="3">
         <v>53300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>41900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>36100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>26100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>48400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>44400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>46600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>40100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>29500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>24000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>33800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>37800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>28500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>24200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>39800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>26700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>36100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5717,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5919,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-33300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-77900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-41700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>10900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6015,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6081,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,199 +6285,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1015700</v>
+      </c>
+      <c r="E100" s="3">
         <v>4500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>21300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-26400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-68900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-10000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-25200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-21400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-21200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-18600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-28800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-21100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-27700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
       </c>
       <c r="J101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1172800</v>
+      </c>
+      <c r="E102" s="3">
         <v>24700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>24900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-40200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>22700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>40400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>42900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>23900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-51800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>21300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>10300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ROLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>ROLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,306 +665,319 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44191</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E8" s="3">
         <v>160900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>156200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>160300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>145900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>146300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>156500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>185800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>177000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>181900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>182700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>182200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>171500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>172900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>176000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>179900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>166900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>164300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>163900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>160200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>146700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>153900</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>173600</v>
+      </c>
+      <c r="E9" s="3">
         <v>98400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>92400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>97800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>90300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>89700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>97000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>109300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>106300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>110800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>112000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>109200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>103300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>105100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>108200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>110200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>102100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>102400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>101900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>97000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>94300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>97200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E10" s="3">
         <v>62500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>63800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>62500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>55600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>56600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>59500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>76500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>70700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>71100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>70700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>73000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>68200</v>
-      </c>
-      <c r="P10" s="3">
-        <v>67800</v>
       </c>
       <c r="Q10" s="3">
         <v>67800</v>
       </c>
       <c r="R10" s="3">
+        <v>67800</v>
+      </c>
+      <c r="S10" s="3">
         <v>69700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>64800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>61900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>62000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>63200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>52400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,8 +1002,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1057,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1125,40 +1142,43 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E14" s="3">
         <v>2500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>900</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1172,17 +1192,17 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1193,28 +1213,31 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E15" s="3">
         <v>2800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2600</v>
       </c>
       <c r="H15" s="3">
         <v>2600</v>
       </c>
       <c r="I15" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J15" s="3">
         <v>2500</v>
@@ -1223,31 +1246,31 @@
         <v>2500</v>
       </c>
       <c r="L15" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M15" s="3">
         <v>2300</v>
       </c>
       <c r="N15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="O15" s="3">
         <v>2400</v>
       </c>
       <c r="P15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q15" s="3">
         <v>2600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2400</v>
-      </c>
-      <c r="R15" s="3">
-        <v>2300</v>
       </c>
       <c r="S15" s="3">
         <v>2300</v>
       </c>
       <c r="T15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="U15" s="3">
         <v>2400</v>
@@ -1256,13 +1279,16 @@
         <v>2400</v>
       </c>
       <c r="W15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="X15" s="3">
         <v>2300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>252600</v>
+      </c>
+      <c r="E17" s="3">
         <v>133800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>125500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>130600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>119300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>120000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>127700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>142300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>139600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>144600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>144200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>141800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>151600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>137000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>140000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>141900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>133600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>138900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>131900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>125800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>126100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E18" s="3">
         <v>27100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>30700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>29700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>26600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>26300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>28800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>43500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>37400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>37300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>38500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>40400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>35900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>36000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>38000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>33300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>25400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>32000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>34400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>20600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1446,25 +1479,26 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-15500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-500</v>
       </c>
       <c r="I20" s="3">
         <v>-500</v>
@@ -1473,7 +1507,7 @@
         <v>-500</v>
       </c>
       <c r="K20" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="L20" s="3">
         <v>-700</v>
@@ -1482,108 +1516,114 @@
         <v>-700</v>
       </c>
       <c r="N20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E21" s="3">
         <v>20300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>39100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>37600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>34200</v>
       </c>
       <c r="H21" s="3">
         <v>34200</v>
       </c>
       <c r="I21" s="3">
+        <v>34200</v>
+      </c>
+      <c r="J21" s="3">
         <v>36700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>51100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>44700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>44400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>45300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>47100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>41700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>40600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>43000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>38300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>30400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>36500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>39200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>25400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1650,144 +1690,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>11600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>30900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>29600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>26300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>25800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>28300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>42900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>36800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>36600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>37800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>39700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>19000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>34100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>33300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>35800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>31300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>23300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>29400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>32300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>18600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>4700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4900</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4700</v>
       </c>
       <c r="G24" s="3">
         <v>4700</v>
       </c>
       <c r="H24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I24" s="3">
         <v>5400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1854,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>6900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>26000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>25000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>22700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>33900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>30500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>31300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>31400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>16200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>30100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>27500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>25700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>24600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>14800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>21800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>21600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>12800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E27" s="3">
         <v>6400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>26000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>25000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>20400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>22700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>33900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>31300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>31400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>30100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>27500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>25700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>24600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>14800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>21800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>21600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>12800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2058,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2069,11 +2130,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -2081,11 +2142,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2105,14 +2166,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>1000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-800</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2126,8 +2187,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2262,25 +2329,28 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E32" s="3">
         <v>15500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>500</v>
       </c>
       <c r="I32" s="3">
         <v>500</v>
@@ -2289,7 +2359,7 @@
         <v>500</v>
       </c>
       <c r="K32" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L32" s="3">
         <v>700</v>
@@ -2298,108 +2368,114 @@
         <v>700</v>
       </c>
       <c r="N32" s="3">
+        <v>700</v>
+      </c>
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E33" s="3">
         <v>6400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>26000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>25000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>20400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>22700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>33800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>30500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>31300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>30500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>31400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>30100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>27500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>26700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>14800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>21800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>21600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>12800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2466,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E35" s="3">
         <v>6400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>26000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>25000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>20400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>22700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>33800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>30500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>31300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>30500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>31400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>30100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>27500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>26700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>14800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>21800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>21600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>12800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44191</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2633,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2659,76 +2745,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>255500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1348600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>175800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>151100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>126200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>166400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>143600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>103300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>60300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>36400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>32700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>29900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>81700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>60400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>55700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>54200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>43800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>42900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>45500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>38900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>39500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2736,16 +2826,16 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>120300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>90200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>75500</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -2762,8 +2852,8 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2795,280 +2885,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>204300</v>
+      </c>
+      <c r="E43" s="3">
         <v>116400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>112000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>116100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>108600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>112700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>115000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>129000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>121800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>129600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>130100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>130700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>116700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>119500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>116200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>116900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>109900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>109700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>112600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>109700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>98300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>510200</v>
+      </c>
+      <c r="E44" s="3">
         <v>370700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>369900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>364100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>372100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>371500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>371000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>367500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>362100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>354000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>342900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>335000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>329500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>324200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>311300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>306100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>303000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>297300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>292400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>289600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>287400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>287200</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E45" s="3">
         <v>24100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>9700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>12100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>987200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1859900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>786100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>728200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>692300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>661000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>638800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>612000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>554700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>534000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>514400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>503300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>538300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>517100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>490800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>483700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>470100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>457900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>459100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>448000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>437200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>437400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3081,11 +3186,11 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3">
         <v>2100</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -3102,8 +3207,8 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3135,144 +3240,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>439000</v>
+      </c>
+      <c r="E48" s="3">
         <v>237300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>240900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>243900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>249600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>244000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>248700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>248800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>252200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>248500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>241600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>207900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>202100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>197400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>191600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>192500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>190300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>186700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>185900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>183600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>181100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>184800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3411600</v>
+      </c>
+      <c r="E49" s="3">
         <v>428700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>431700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>431900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>435800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>436800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>438500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>440500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>441200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>442500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>415500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>417100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>419100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>448200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>450000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>451900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>454000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>456100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>463100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>464800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>467100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>469600</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3407,76 +3524,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E52" s="3">
         <v>41900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>31800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>29100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>26000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>23200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>24300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>21600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>19100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>15400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>15500</v>
-      </c>
-      <c r="R52" s="3">
-        <v>14700</v>
       </c>
       <c r="S52" s="3">
         <v>14700</v>
       </c>
       <c r="T52" s="3">
+        <v>14700</v>
+      </c>
+      <c r="U52" s="3">
         <v>14000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>12600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>12400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>12200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4875100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2567800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1490600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1434300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1409000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1367900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1349200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1321900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1272500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1246600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1191900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1147400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1174900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1179300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1148000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1142800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1129200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1114600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1120600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1108800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1097700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1103500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3637,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3663,111 +3793,115 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>140400</v>
+      </c>
+      <c r="E57" s="3">
         <v>47600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>42700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>39900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>39600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>51800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>51000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>50200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>50800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>51600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>49600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>43400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>48200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>44100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>45200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>43600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>38500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>37500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>34400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>37200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>63500</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
       </c>
       <c r="F58" s="3">
+        <v>500</v>
+      </c>
+      <c r="G58" s="3">
         <v>2600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12800</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="N58" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N58" s="3">
-        <v>500</v>
       </c>
       <c r="O58" s="3">
         <v>500</v>
@@ -3779,300 +3913,315 @@
         <v>500</v>
       </c>
       <c r="R58" s="3">
+        <v>500</v>
+      </c>
+      <c r="S58" s="3">
         <v>19200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>18000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>16700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>15500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>14200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>13000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E59" s="3">
         <v>64200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>52300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>42300</v>
       </c>
       <c r="H59" s="3">
         <v>42300</v>
       </c>
       <c r="I59" s="3">
+        <v>42300</v>
+      </c>
+      <c r="J59" s="3">
         <v>42000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>46300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>42100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>48200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>40100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>39700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>41800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>40300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>40800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>39500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>42600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>48600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>44500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>41000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>343000</v>
+      </c>
+      <c r="E60" s="3">
         <v>112300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>95500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>88200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>88400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>88500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>100300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>103800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>99000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>103900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>99900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>90100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>83600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>90500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>84800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>105200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>101100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>97900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>101600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>93100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>91200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>83100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1726700</v>
+      </c>
+      <c r="E61" s="3">
         <v>7100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>13800</v>
-      </c>
-      <c r="I61" s="3">
-        <v>16600</v>
       </c>
       <c r="J61" s="3">
         <v>16600</v>
       </c>
       <c r="K61" s="3">
+        <v>16600</v>
+      </c>
+      <c r="L61" s="3">
         <v>16200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>25000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>26300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>43200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>114100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>124000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>143800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>154100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>180000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>203500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>222400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>255600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>282000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>318300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>470300</v>
+      </c>
+      <c r="E62" s="3">
         <v>111300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>110500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>102600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>101400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>93500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>89600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>83600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>78100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>75800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>68500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>45500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>45600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>52500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>52800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>48900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>49500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>43900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>44900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>43100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>39000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4139,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4275,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2540100</v>
+      </c>
+      <c r="E66" s="3">
         <v>230700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>216200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>204300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>204200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>195800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>206600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>203900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>193300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>204700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>194600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>178800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>243300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>267000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>281400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>308200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>330600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>345300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>368900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>391800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>412200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>437400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4369,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4573,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>885500</v>
+      </c>
+      <c r="E72" s="3">
         <v>891300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>884900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>858900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>833900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>812300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>791900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>769200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>735500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>705000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>673700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>641900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>610500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>594300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>564200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>537000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>510300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>486500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>471600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>448700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>427100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>414300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4777,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4845,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4913,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2334900</v>
+      </c>
+      <c r="E76" s="3">
         <v>2337100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1274400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1230000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1204800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1172100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1142600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1118000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1079200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1041800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>997300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>968600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>931700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>912300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>866600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>834600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>798500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>769300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>751700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>717000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>685500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5049,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44191</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E81" s="3">
         <v>6400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>26000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>25000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>20400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>22700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>33800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>30500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>31300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>30500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>31400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>30100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>27500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>26700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>14800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>21800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>21600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>12800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5216,76 +5414,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E83" s="3">
         <v>8600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>8400</v>
       </c>
       <c r="I83" s="3">
         <v>8400</v>
       </c>
       <c r="J83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K83" s="3">
         <v>8100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>7100</v>
       </c>
       <c r="U83" s="3">
         <v>7100</v>
       </c>
       <c r="V83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="W83" s="3">
         <v>6900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>6800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5352,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5488,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5556,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5624,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E89" s="3">
         <v>40200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>53300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>41900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>36100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>26100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>48400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>44400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>46600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>24500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>40100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>29500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>21100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>24000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>33800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>37800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>28500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>24200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>39800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>26700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>36100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5718,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5854,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5922,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2923100</v>
+      </c>
+      <c r="E94" s="3">
         <v>116900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-33300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-77900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-41700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>10900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6084,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6220,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6288,76 +6531,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1790000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1015700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-26400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-68900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-25200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-21400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-21200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-18600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-28800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-21100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-27700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6365,131 +6614,137 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
       <c r="K101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1093100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1172800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>24700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>24900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-40200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>22700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>40400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>42900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>23900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-51800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>21300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>10300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ROLL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROLL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>ROLL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,344 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44191</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>354100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>358900</v>
+      </c>
+      <c r="F8" s="3">
         <v>267000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>160900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>156200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>160300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>145900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>146300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>156500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>185800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>177000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>181900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>182700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>182200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>171500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>172900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>176000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>179900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>166900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>164300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>163900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>160200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>146700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>153900</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>212900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>221400</v>
+      </c>
+      <c r="F9" s="3">
         <v>173600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>98400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>92400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>97800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>90300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>89700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>97000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>109300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>106300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>110800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>112000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>109200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>103300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>105100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>108200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>110200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>102100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>102400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>101900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>97000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>94300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>97200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>137500</v>
+      </c>
+      <c r="F10" s="3">
         <v>93400</v>
-      </c>
-      <c r="E10" s="3">
-        <v>62500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>63800</v>
       </c>
       <c r="G10" s="3">
         <v>62500</v>
       </c>
       <c r="H10" s="3">
+        <v>63800</v>
+      </c>
+      <c r="I10" s="3">
+        <v>62500</v>
+      </c>
+      <c r="J10" s="3">
         <v>55600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>56600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>59500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>76500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>70700</v>
-      </c>
-      <c r="M10" s="3">
-        <v>71100</v>
       </c>
       <c r="N10" s="3">
         <v>70700</v>
       </c>
       <c r="O10" s="3">
+        <v>71100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>70700</v>
+      </c>
+      <c r="Q10" s="3">
         <v>73000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>68200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>67800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>67800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>69700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>64800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>61900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>62000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>63200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>52400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>56700</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1028,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1101,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,46 +1178,52 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F14" s="3">
         <v>23600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1100</v>
-      </c>
-      <c r="K14" s="3">
-        <v>900</v>
-      </c>
-      <c r="L14" s="3">
-        <v>100</v>
       </c>
       <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>100</v>
+      </c>
+      <c r="O14" s="3">
+        <v>900</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1195,20 +1234,20 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>1100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1216,79 +1255,91 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F15" s="3">
         <v>12100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>2800</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2500</v>
       </c>
       <c r="H15" s="3">
         <v>2600</v>
       </c>
       <c r="I15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J15" s="3">
         <v>2600</v>
       </c>
-      <c r="J15" s="3">
-        <v>2500</v>
-      </c>
       <c r="K15" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="L15" s="3">
         <v>2500</v>
       </c>
       <c r="M15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O15" s="3">
         <v>2300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>2300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>2400</v>
-      </c>
-      <c r="P15" s="3">
-        <v>2400</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>2600</v>
       </c>
       <c r="R15" s="3">
         <v>2400</v>
       </c>
       <c r="S15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U15" s="3">
         <v>2300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>2300</v>
-      </c>
-      <c r="U15" s="3">
-        <v>2400</v>
-      </c>
-      <c r="V15" s="3">
-        <v>2400</v>
       </c>
       <c r="W15" s="3">
         <v>2400</v>
       </c>
       <c r="X15" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="Y15" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1362,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>289600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>301000</v>
+      </c>
+      <c r="F17" s="3">
         <v>252600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>133800</v>
       </c>
-      <c r="F17" s="3">
-        <v>125500</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>126900</v>
+      </c>
+      <c r="I17" s="3">
         <v>130600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>119300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>120000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>127700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>142300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>139600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>144600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>144200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>141800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>151600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>137000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>140000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>141900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>133600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>138900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>131900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>125800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>126100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>57900</v>
+      </c>
+      <c r="F18" s="3">
         <v>14400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>27100</v>
       </c>
-      <c r="F18" s="3">
-        <v>30700</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>29300</v>
+      </c>
+      <c r="I18" s="3">
         <v>29700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>26600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>26300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>28800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>43500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>37400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>37300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>38500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>40400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>19900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>35900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>36000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>38000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>33300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>25400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>32000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>34400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>20600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,150 +1545,164 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-13300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-15500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-500</v>
       </c>
       <c r="K20" s="3">
         <v>-500</v>
       </c>
       <c r="L20" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="M20" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="N20" s="3">
         <v>-700</v>
       </c>
       <c r="O20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-2800</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-2000</v>
       </c>
       <c r="U20" s="3">
         <v>-2100</v>
       </c>
       <c r="V20" s="3">
-        <v>-2600</v>
+        <v>-2000</v>
       </c>
       <c r="W20" s="3">
         <v>-2100</v>
       </c>
       <c r="X20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>72300</v>
+      </c>
+      <c r="F21" s="3">
         <v>21600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>20300</v>
       </c>
-      <c r="F21" s="3">
-        <v>39100</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>37700</v>
+      </c>
+      <c r="I21" s="3">
         <v>37600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>34200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>34200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>36700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>51100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>44700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>44400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>45300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>47100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>26300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>41700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>40600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>43000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>38300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>30400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>36500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>39200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>25400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>34100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1693,150 +1772,168 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>44100</v>
+      </c>
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>11600</v>
       </c>
-      <c r="F23" s="3">
-        <v>30900</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>29500</v>
+      </c>
+      <c r="I23" s="3">
         <v>29600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>26300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>25800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>28300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>42900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>36800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>36600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>37800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>39700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>19000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>34100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>33300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>35800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>31300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>23300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>29400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>32300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>18600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>27200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F24" s="3">
         <v>1200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>4700</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4900</v>
       </c>
       <c r="G24" s="3">
         <v>4700</v>
       </c>
       <c r="H24" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I24" s="3">
         <v>4700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K24" s="3">
         <v>5400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>9100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>6300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>5400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>7300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>8300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>4000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>5800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>10100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>6700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>8500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>7600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>10700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>5900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +2003,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>32200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>6900</v>
       </c>
-      <c r="F26" s="3">
-        <v>26000</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I26" s="3">
         <v>25000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>21600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>20400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>22700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>33900</v>
-      </c>
-      <c r="L26" s="3">
-        <v>30500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>31300</v>
       </c>
       <c r="N26" s="3">
         <v>30500</v>
       </c>
       <c r="O26" s="3">
+        <v>31300</v>
+      </c>
+      <c r="P26" s="3">
+        <v>30500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>31400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>16200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>30100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>27500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>25700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>24600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>14800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>21800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>21600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>12800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>26500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>6400</v>
       </c>
-      <c r="F27" s="3">
-        <v>26000</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I27" s="3">
         <v>25000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>21600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>20400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>22700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>33900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>30500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>31300</v>
       </c>
       <c r="N27" s="3">
         <v>30500</v>
       </c>
       <c r="O27" s="3">
+        <v>31300</v>
+      </c>
+      <c r="P27" s="3">
+        <v>30500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>31400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>16200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>30100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>27500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>25700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>24600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>14800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>21800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>21600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>12800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,40 +2234,46 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>-100</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>-100</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2169,17 +2290,17 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>1000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-800</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2190,8 +2311,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2388,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,150 +2465,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F32" s="3">
         <v>13300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>15500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>500</v>
       </c>
       <c r="K32" s="3">
         <v>500</v>
       </c>
       <c r="L32" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M32" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N32" s="3">
         <v>700</v>
       </c>
       <c r="O32" s="3">
+        <v>700</v>
+      </c>
+      <c r="P32" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>2800</v>
-      </c>
-      <c r="S32" s="3">
-        <v>2100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>2000</v>
       </c>
       <c r="U32" s="3">
         <v>2100</v>
       </c>
       <c r="V32" s="3">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="W32" s="3">
         <v>2100</v>
       </c>
       <c r="X32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Z32" s="3">
         <v>1900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>26500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>6400</v>
       </c>
-      <c r="F33" s="3">
-        <v>26000</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I33" s="3">
         <v>25000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>21600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>20400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>22700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>33800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>30500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>31300</v>
       </c>
       <c r="N33" s="3">
         <v>30500</v>
       </c>
       <c r="O33" s="3">
+        <v>31300</v>
+      </c>
+      <c r="P33" s="3">
+        <v>30500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>31400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>16200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>30100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>27500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>26700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>23800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>14800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>21800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>21600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>12800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2696,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>26500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>6400</v>
       </c>
-      <c r="F35" s="3">
-        <v>26000</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I35" s="3">
         <v>25000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>21600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>20400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>22700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>33800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>30500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>31300</v>
       </c>
       <c r="N35" s="3">
         <v>30500</v>
       </c>
       <c r="O35" s="3">
+        <v>31300</v>
+      </c>
+      <c r="P35" s="3">
+        <v>30500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>31400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>16200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>30100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>27500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>26700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>23800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>14800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>21800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>21600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>12800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44191</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2888,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,102 +2917,110 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>119600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>182900</v>
+      </c>
+      <c r="F41" s="3">
         <v>255500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1348600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>175800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>151100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>126200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>166400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>143600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>103300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>60300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>36400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>32700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>29900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>81700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>60400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>55700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>54200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>43800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>42900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>45500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>38900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>39500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>37500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>120300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>90200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>75500</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2855,11 +3034,11 @@
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2888,292 +3067,322 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>239900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>251400</v>
+      </c>
+      <c r="F43" s="3">
         <v>204300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>116400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>112000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>116100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>108600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>112700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>115000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>129000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>121800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>129600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>130100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>130700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>116700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>119500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>116200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>116900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>109900</v>
-      </c>
-      <c r="U43" s="3">
-        <v>109700</v>
-      </c>
-      <c r="V43" s="3">
-        <v>112600</v>
       </c>
       <c r="W43" s="3">
         <v>109700</v>
       </c>
       <c r="X43" s="3">
+        <v>112600</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>109700</v>
+      </c>
+      <c r="Z43" s="3">
         <v>98300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>103900</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>542100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>516100</v>
+      </c>
+      <c r="F44" s="3">
         <v>510200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>370700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>369900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>364100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>372100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>371500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>371000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>367500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>362100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>354000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>342900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>335000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>329500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>324200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>311300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>306100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>303000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>297300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>292400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>289600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>287400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>287200</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F45" s="3">
         <v>17300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>24100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>8200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>9900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>10400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>9200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>12300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>10400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>13900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>8700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>7700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>10400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>13000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>7600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>6500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>13300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>8000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>8500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>9700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>12100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>916100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>962200</v>
+      </c>
+      <c r="F46" s="3">
         <v>987200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1859900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>786100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>728200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>692300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>661000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>638800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>612000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>554700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>534000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>514400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>503300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>538300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>517100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>490800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>483700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>470100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>457900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>459100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>448000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>437200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>437400</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3189,14 +3398,14 @@
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
-        <v>2100</v>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+      <c r="J47" s="3">
+        <v>2100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -3210,11 +3419,11 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3243,150 +3452,168 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>428600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>431300</v>
+      </c>
+      <c r="F48" s="3">
         <v>439000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>237300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>240900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>243900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>249600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>244000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>248700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>248800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>252200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>248500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>241600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>207900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>202100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>197400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>191600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>192500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>190300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>186700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>185900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>183600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>181100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>184800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3377400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3413600</v>
+      </c>
+      <c r="F49" s="3">
         <v>3411600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>428700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>431700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>431900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>435800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>436800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>438500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>440500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>441200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>442500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>415500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>417100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>419100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>448200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>450000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>451900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>454000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>456100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>463100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>464800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>467100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>469600</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3683,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,79 +3760,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>38300</v>
+      </c>
+      <c r="F52" s="3">
         <v>37200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>41900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>31800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>30200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>29100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>26000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>23200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>20600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>24300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>21600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>20300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>19100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>15400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>16500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>15500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>14700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>14700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>14000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>12600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>12400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>12200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3914,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4758000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4845400</v>
+      </c>
+      <c r="F54" s="3">
         <v>4875100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2567800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1490600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1434300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1409000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1367900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1349200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1321900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1272500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1246600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1191900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1147400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1174900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1179300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1148000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1142800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1129200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1114600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1120600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1108800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1097700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1103500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +4024,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,120 +4053,128 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>161800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>158600</v>
+      </c>
+      <c r="F57" s="3">
         <v>140400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>47600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>42700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>36300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>39900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>39600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>51800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>51000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>50200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>50800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>51600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>49600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>43400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>48200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>44100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>45200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>43600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>38500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>37500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>34400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>37200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>35500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F58" s="3">
         <v>63500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>6100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>6600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>6500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>6400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>6600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>12800</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="P58" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="O58" s="3">
-        <v>500</v>
-      </c>
-      <c r="P58" s="3">
-        <v>500</v>
       </c>
       <c r="Q58" s="3">
         <v>500</v>
@@ -3916,312 +4183,342 @@
         <v>500</v>
       </c>
       <c r="S58" s="3">
+        <v>500</v>
+      </c>
+      <c r="T58" s="3">
+        <v>500</v>
+      </c>
+      <c r="U58" s="3">
         <v>19200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>18000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>16700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>15500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>14200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>13000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>153300</v>
+      </c>
+      <c r="F59" s="3">
         <v>139100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>64200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>52300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>49300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>42300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>42300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>42000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>46300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>42100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>40300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>48200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>40100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>39700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>41800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>40300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>40800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>39500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>42600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>48600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>44500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>41000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>330400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>313500</v>
+      </c>
+      <c r="F60" s="3">
         <v>343000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>112300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>95500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>88200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>88400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>88500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>100300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>103800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>99000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>103900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>99900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>90100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>83600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>90500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>84800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>105200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>101100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>97900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>101600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>93100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>91200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>83100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1563800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1686800</v>
+      </c>
+      <c r="F61" s="3">
         <v>1726700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>7100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>10200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>13500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>14400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>13800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>16600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>16600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>16200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>25000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>26300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>43200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>114100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>124000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>143800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>154100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>180000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>203500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>222400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>255600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>282000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>318300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>466200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>473300</v>
+      </c>
+      <c r="F62" s="3">
         <v>470300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>111300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>110500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>102600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>101400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>93500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>89600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>83600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>78100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>75800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>68500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>45500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>45600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>52500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>52800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>48900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>49500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>43900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>44900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>43100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>39000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>36000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4588,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4665,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4742,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2360400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2473600</v>
+      </c>
+      <c r="F66" s="3">
         <v>2540100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>230700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>216200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>204300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>204200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>195800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>206600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>203900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>193300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>204700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>194600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>178800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>243300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>267000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>281400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>308200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>330600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>345300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>368900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>391800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>412200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>437400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4852,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4925,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +5002,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +5079,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +5156,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>917800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>911900</v>
+      </c>
+      <c r="F72" s="3">
         <v>885500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>891300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>884900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>858900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>833900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>812300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>791900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>769200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>735500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>705000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>673700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>641900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>610500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>594300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>564200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>537000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>510300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>486500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>471600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>448700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>427100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>414300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5310,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5387,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5464,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2397600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2371800</v>
+      </c>
+      <c r="F76" s="3">
         <v>2334900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2337100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1274400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1230000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1204800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1172100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1142600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1118000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1079200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1041800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>997300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>968600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>931700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>912300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>866600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>834600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>798500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>769300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>751700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>717000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>685500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>666100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5618,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44191</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>26500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>6400</v>
       </c>
-      <c r="F81" s="3">
-        <v>26000</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I81" s="3">
         <v>25000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>21600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>20400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>22700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>33800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>30500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>31300</v>
       </c>
       <c r="N81" s="3">
         <v>30500</v>
       </c>
       <c r="O81" s="3">
+        <v>31300</v>
+      </c>
+      <c r="P81" s="3">
+        <v>30500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>31400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>16200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>30100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>27500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>26700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>23800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>14800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>21800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>21600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>12800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5810,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>28200</v>
+      </c>
+      <c r="F83" s="3">
         <v>20500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>8600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>8200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>7900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>8000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>8400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>8400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>8100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>8000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>7800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>7500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>7400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>7300</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>7600</v>
       </c>
       <c r="R83" s="3">
         <v>7300</v>
       </c>
       <c r="S83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="T83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="U83" s="3">
         <v>7200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>7000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>7100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>7100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>6900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>6800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5960,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +6037,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +6114,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +6191,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6268,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>46900</v>
+      </c>
+      <c r="F89" s="3">
         <v>40000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>40200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>53300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>41900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>36100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>26100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>48400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>44400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>46600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>24500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>40100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>29500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>21100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>24000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>33800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>37800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>28500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>24200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>39800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>26700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>36100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6378,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-14900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-9700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-7300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-8200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-12000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-12100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-10800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-7000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-7400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-7900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-7000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-5700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-6500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6528,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6605,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2923100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>116900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-33300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-17900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-77900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-7300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-41700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-12000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-12100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>10900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-10700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-5200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-7400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-7900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-7000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-5700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-6400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6715,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6321,8 +6788,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6865,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6942,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,217 +7019,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-136400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-111800</v>
+      </c>
+      <c r="F100" s="3">
         <v>1790000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1015700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>4500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-4300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-15600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>21300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-26400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-68900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-9200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-25200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-21400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-21200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-18600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-28800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-21100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-27700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>1300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>1400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-1100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>1200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-63300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1093100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1172800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>24700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>24900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-40200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>22700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>40400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>42900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>23900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-51800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>21300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>4700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>10300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-2600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>6500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>2000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
     </row>
